--- a/学部２年/後期/マテリアル学生実験２/B2/実験データ.xlsx
+++ b/学部２年/後期/マテリアル学生実験２/B2/実験データ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kurit\ドキュメント\Tokyo-University-of-Science\学部２年\後期\マテリアル学生実験２\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\atsushi\Documents\Tokyo-University-of-Science\学部２年\後期\マテリアル学生実験２\B2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B81C1780-66FA-4A43-8F08-B88A19CA12F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969D6D9D-0F4E-46F8-A42B-9BCC308BEFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{343971D0-8714-46E1-B97E-D0DE9C071B5E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{343971D0-8714-46E1-B97E-D0DE9C071B5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>入力(Ｖ)</t>
     <rPh sb="0" eb="2">
@@ -58,11 +58,49 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>半波整流回路</t>
+    <rPh sb="0" eb="2">
+      <t>ハンパ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>セイリュウカイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全波整流回路</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンパ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>セイリュウカイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスター[V]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンデンサーの容量[μF]</t>
+    <rPh sb="7" eb="9">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスター</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="181" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -116,13 +154,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thick">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal style="thick">
+        <color auto="1"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -133,6 +193,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -368,6 +452,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>t[s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -413,6 +553,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>入力電圧</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[V]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -716,6 +916,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>ｔ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -761,6 +1021,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>出力電圧</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[mV]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1964,16 +2284,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>481018</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>183356</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>496258</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>8096</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>252418</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>16668</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>267658</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>54768</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2001,13 +2321,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>495305</xdr:colOff>
+      <xdr:colOff>518165</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>2381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>266705</xdr:colOff>
+      <xdr:colOff>289565</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>54768</xdr:rowOff>
     </xdr:to>
@@ -2034,6 +2354,1089 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="391839" cy="173766"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="テキスト ボックス 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A5A6E5F-6FB8-5DF7-DFD4-3198EFC0C34D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12538710" y="480060"/>
+              <a:ext cx="391839" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>V</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>m</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>[</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑉</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>]</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="テキスト ボックス 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A5A6E5F-6FB8-5DF7-DFD4-3198EFC0C34D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12538710" y="480060"/>
+              <a:ext cx="391839" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" i="0" kern="1200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>V_m</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" kern="1200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> [𝑉]</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>194310</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="572593" cy="173766"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="テキスト ボックス 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{063F083A-21FA-78FC-E24E-4EF7087532D0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13338810" y="502920"/>
+              <a:ext cx="572593" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:type m:val="lin"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" i="1" kern="1200">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑉</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑚</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜋</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> [</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑉</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>]</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="テキスト ボックス 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{063F083A-21FA-78FC-E24E-4EF7087532D0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13338810" y="502920"/>
+              <a:ext cx="572593" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" kern="1200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑉_𝑚</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" kern="1200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∕〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" kern="1200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜋 [𝑉]</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" kern="1200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〗</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>118110</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="650691" cy="173766"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="テキスト ボックス 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C679B4-0075-480A-A77F-6D0A16FC12F7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14177010" y="487680"/>
+              <a:ext cx="650691" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:type m:val="lin"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" i="1" kern="1200">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑉</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑚</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝜋</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t> [</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑉</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>]</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="テキスト ボックス 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C679B4-0075-480A-A77F-6D0A16FC12F7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14177010" y="487680"/>
+              <a:ext cx="650691" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" i="0" kern="1200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" kern="1200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2𝑉〗_𝑚</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" kern="1200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∕〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" kern="1200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜋 [𝑉]</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" kern="1200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〗</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="391839" cy="173766"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="テキスト ボックス 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAA27633-7BCD-4298-A212-B823E5DFEDD1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14405610" y="1889760"/>
+              <a:ext cx="391839" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>V</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>m</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>[</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑉</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>]</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="テキスト ボックス 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAA27633-7BCD-4298-A212-B823E5DFEDD1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14405610" y="1889760"/>
+              <a:ext cx="391839" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" i="0" kern="1200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>V_m</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" kern="1200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> [𝑉]</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>240030</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="394595" cy="173766"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="テキスト ボックス 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7B86D8-8B2A-47AC-8EBF-380601B55079}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15312390" y="1897380"/>
+              <a:ext cx="394595" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∆</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑉</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>[</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑉</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>]</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="テキスト ボックス 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7B86D8-8B2A-47AC-8EBF-380601B55079}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15312390" y="1897380"/>
+              <a:ext cx="394595" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" kern="1200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∆𝑉[𝑉]</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>270510</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="431336" cy="173766"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="テキスト ボックス 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44AA0033-B07C-439C-8A2B-4E48A4DF883E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16181070" y="1905000"/>
+              <a:ext cx="431336" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>∆</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑉</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>/</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑉</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1" kern="1200">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑚</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="テキスト ボックス 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44AA0033-B07C-439C-8A2B-4E48A4DF883E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16181070" y="1905000"/>
+              <a:ext cx="431336" cy="173766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" kern="1200">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∆𝑉/𝑉_𝑚</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2354,16 +3757,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B8B03E9-0504-4CF5-A45F-62312D9EF7C3}">
-  <dimension ref="D2:F25"/>
+  <dimension ref="D2:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9:W13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="18" max="18" width="22.09765625" customWidth="1"/>
+    <col min="19" max="19" width="14.09765625" customWidth="1"/>
+    <col min="20" max="20" width="12" customWidth="1"/>
+    <col min="21" max="21" width="11" customWidth="1"/>
+    <col min="22" max="22" width="11.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="4:6" ht="18" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="3" spans="4:6" ht="18.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="4:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="4:23" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2373,8 +3783,15 @@
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="4:6" ht="18" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="4:23" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D4" s="1">
         <v>0</v>
       </c>
@@ -2384,8 +3801,21 @@
       <c r="F4" s="1">
         <v>-2</v>
       </c>
+      <c r="R4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="10">
+        <v>27</v>
+      </c>
+      <c r="T4" s="1">
+        <v>8.59</v>
+      </c>
+      <c r="U4" s="6"/>
+      <c r="V4" s="1">
+        <v>8.43</v>
+      </c>
     </row>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.7">
+    <row r="5" spans="4:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D5" s="1">
         <v>5.0000000000000001E-4</v>
       </c>
@@ -2395,8 +3825,21 @@
       <c r="F5" s="1">
         <v>-0.5</v>
       </c>
+      <c r="R5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="11">
+        <v>27</v>
+      </c>
+      <c r="T5" s="5"/>
+      <c r="U5" s="3">
+        <v>17.2</v>
+      </c>
+      <c r="V5" s="3">
+        <v>17.100000000000001</v>
+      </c>
     </row>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.7">
+    <row r="6" spans="4:23" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D6" s="1">
         <v>1E-3</v>
       </c>
@@ -2407,7 +3850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.7">
+    <row r="7" spans="4:23" x14ac:dyDescent="0.45">
       <c r="D7" s="1">
         <v>1.5E-3</v>
       </c>
@@ -2418,7 +3861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.7">
+    <row r="8" spans="4:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D8" s="1">
         <v>2E-3</v>
       </c>
@@ -2429,7 +3872,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.7">
+    <row r="9" spans="4:23" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D9" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
@@ -2439,8 +3882,18 @@
       <c r="F9" s="1">
         <v>4.2</v>
       </c>
+      <c r="R9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.7">
+    <row r="10" spans="4:23" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D10" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -2450,8 +3903,26 @@
       <c r="F10" s="1">
         <v>3.9</v>
       </c>
+      <c r="R10" s="1">
+        <v>100</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="10">
+        <v>27</v>
+      </c>
+      <c r="U10" s="10">
+        <v>17.5</v>
+      </c>
+      <c r="V10" s="8">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="W10" s="10">
+        <v>18.899999999999999</v>
+      </c>
     </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.7">
+    <row r="11" spans="4:23" x14ac:dyDescent="0.45">
       <c r="D11" s="1">
         <v>3.5000000000000001E-3</v>
       </c>
@@ -2461,8 +3932,26 @@
       <c r="F11" s="1">
         <v>3.5</v>
       </c>
+      <c r="R11" s="1">
+        <v>100</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="T11" s="10">
+        <v>27</v>
+      </c>
+      <c r="U11" s="10">
+        <v>10</v>
+      </c>
+      <c r="V11" s="8">
+        <v>0.37</v>
+      </c>
+      <c r="W11" s="10">
+        <v>23</v>
+      </c>
     </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.7">
+    <row r="12" spans="4:23" x14ac:dyDescent="0.45">
       <c r="D12" s="1">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -2472,8 +3961,26 @@
       <c r="F12" s="1">
         <v>2.8</v>
       </c>
+      <c r="R12" s="1">
+        <v>470</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="10">
+        <v>26</v>
+      </c>
+      <c r="U12" s="8">
+        <v>8</v>
+      </c>
+      <c r="V12" s="8">
+        <v>0.308</v>
+      </c>
+      <c r="W12" s="10">
+        <v>22.3</v>
+      </c>
     </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.7">
+    <row r="13" spans="4:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D13" s="1">
         <v>4.4999999999999997E-3</v>
       </c>
@@ -2483,8 +3990,26 @@
       <c r="F13" s="1">
         <v>2.2000000000000002</v>
       </c>
+      <c r="R13" s="3">
+        <v>470</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T13" s="11">
+        <v>26</v>
+      </c>
+      <c r="U13" s="9">
+        <v>3</v>
+      </c>
+      <c r="V13" s="9">
+        <v>0.115</v>
+      </c>
+      <c r="W13" s="11">
+        <v>24.5</v>
+      </c>
     </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.7">
+    <row r="14" spans="4:23" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D14" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -2495,7 +4020,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.7">
+    <row r="15" spans="4:23" x14ac:dyDescent="0.45">
       <c r="D15" s="1">
         <v>5.4999999999999997E-3</v>
       </c>
@@ -2506,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.7">
+    <row r="16" spans="4:23" x14ac:dyDescent="0.45">
       <c r="D16" s="1">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -2517,7 +4042,7 @@
         <v>-2.2999999999999998</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.7">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D17" s="1">
         <v>6.4999999999999997E-3</v>
       </c>
@@ -2528,7 +4053,7 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.7">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D18" s="1">
         <v>7.0000000000000001E-3</v>
       </c>
@@ -2539,7 +4064,7 @@
         <v>-4.0999999999999996</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.7">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D19" s="1">
         <v>7.4999999999999997E-3</v>
       </c>
@@ -2550,7 +4075,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.7">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D20" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
@@ -2561,7 +4086,7 @@
         <v>-4.3</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.7">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D21" s="1">
         <v>8.5000000000000006E-3</v>
       </c>
@@ -2572,7 +4097,7 @@
         <v>-3.8</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.7">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D22" s="1">
         <v>8.9999999999999993E-3</v>
       </c>
@@ -2583,7 +4108,7 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.7">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.45">
       <c r="D23" s="1">
         <v>9.4999999999999998E-3</v>
       </c>
@@ -2594,7 +4119,7 @@
         <v>-2.8</v>
       </c>
     </row>
-    <row r="24" spans="4:6" ht="18" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="24" spans="4:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D24" s="3">
         <v>0.01</v>
       </c>
@@ -2605,7 +4130,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="25" spans="4:6" ht="18" thickTop="1" x14ac:dyDescent="0.7"/>
+    <row r="25" spans="4:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
